--- a/MLS silmulations/optimum_value_vs_for_k2_value_dataframe.xlsx
+++ b/MLS silmulations/optimum_value_vs_for_k2_value_dataframe.xlsx
@@ -445,7 +445,7 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
